--- a/Exposiciones/SI2020_Exposiciones.xlsx
+++ b/Exposiciones/SI2020_Exposiciones.xlsx
@@ -601,8 +601,8 @@
   <dimension ref="A2:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <pane ySplit="7" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,16 +748,26 @@
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
-      <c r="G9" s="15"/>
+      <c r="G9" s="15">
+        <v>5</v>
+      </c>
       <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
+      <c r="I9" s="17">
+        <v>7</v>
+      </c>
+      <c r="J9" s="17">
+        <v>4</v>
+      </c>
       <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="19"/>
+      <c r="L9" s="17">
+        <v>3</v>
+      </c>
+      <c r="M9" s="19">
+        <v>3</v>
+      </c>
       <c r="N9" s="19">
         <f>SUM(G9:M9)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -877,16 +887,30 @@
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="19"/>
+      <c r="G16" s="15">
+        <v>8</v>
+      </c>
+      <c r="H16" s="17">
+        <v>10</v>
+      </c>
+      <c r="I16" s="17">
+        <v>10</v>
+      </c>
+      <c r="J16" s="17">
+        <v>4</v>
+      </c>
+      <c r="K16" s="17">
+        <v>4</v>
+      </c>
+      <c r="L16" s="17">
+        <v>4</v>
+      </c>
+      <c r="M16" s="19">
+        <v>3</v>
+      </c>
       <c r="N16" s="19">
         <f t="shared" ref="N16:N18" si="0">SUM(G16:M16)</f>
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -898,16 +922,30 @@
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="19"/>
+      <c r="G17" s="15">
+        <v>8</v>
+      </c>
+      <c r="H17" s="17">
+        <v>10</v>
+      </c>
+      <c r="I17" s="17">
+        <v>9</v>
+      </c>
+      <c r="J17" s="17">
+        <v>4</v>
+      </c>
+      <c r="K17" s="17">
+        <v>4</v>
+      </c>
+      <c r="L17" s="17">
+        <v>4</v>
+      </c>
+      <c r="M17" s="19">
+        <v>3</v>
+      </c>
       <c r="N17" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">

--- a/Exposiciones/SI2020_Exposiciones.xlsx
+++ b/Exposiciones/SI2020_Exposiciones.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="4575"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="ddd\,\ dd/mmm/yyyy"/>
   </numFmts>
@@ -601,8 +601,8 @@
   <dimension ref="A2:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,14 +751,18 @@
       <c r="G9" s="15">
         <v>5</v>
       </c>
-      <c r="H9" s="17"/>
+      <c r="H9" s="17">
+        <v>10</v>
+      </c>
       <c r="I9" s="17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J9" s="17">
         <v>4</v>
       </c>
-      <c r="K9" s="17"/>
+      <c r="K9" s="17">
+        <v>4</v>
+      </c>
       <c r="L9" s="17">
         <v>3</v>
       </c>
@@ -767,7 +771,7 @@
       </c>
       <c r="N9" s="19">
         <f>SUM(G9:M9)</f>
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -929,7 +933,7 @@
         <v>10</v>
       </c>
       <c r="I17" s="17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J17" s="17">
         <v>4</v>
@@ -938,14 +942,14 @@
         <v>4</v>
       </c>
       <c r="L17" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M17" s="19">
         <v>3</v>
       </c>
       <c r="N17" s="19">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -1046,16 +1050,30 @@
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="19"/>
+      <c r="G23" s="15">
+        <v>6</v>
+      </c>
+      <c r="H23" s="17">
+        <v>9</v>
+      </c>
+      <c r="I23" s="17">
+        <v>8</v>
+      </c>
+      <c r="J23" s="17">
+        <v>4</v>
+      </c>
+      <c r="K23" s="17">
+        <v>4</v>
+      </c>
+      <c r="L23" s="17">
+        <v>3</v>
+      </c>
+      <c r="M23" s="19">
+        <v>3</v>
+      </c>
       <c r="N23" s="19">
         <f t="shared" ref="N23:N25" si="1">SUM(G23:M23)</f>
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -1067,16 +1085,30 @@
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="19"/>
+      <c r="G24" s="15">
+        <v>6</v>
+      </c>
+      <c r="H24" s="17">
+        <v>9</v>
+      </c>
+      <c r="I24" s="17">
+        <v>2</v>
+      </c>
+      <c r="J24" s="17">
+        <v>4</v>
+      </c>
+      <c r="K24" s="17">
+        <v>4</v>
+      </c>
+      <c r="L24" s="17">
+        <v>3</v>
+      </c>
+      <c r="M24" s="19">
+        <v>0</v>
+      </c>
       <c r="N24" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
